--- a/Inputs/Pacific_Cross_Lifecare/rateSheet.xlsx
+++ b/Inputs/Pacific_Cross_Lifecare/rateSheet.xlsx
@@ -9,7 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$N$1921</definedName>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4851" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4767" uniqueCount="34">
   <si>
     <t xml:space="preserve">planName</t>
   </si>
@@ -126,9 +125,6 @@
   </si>
   <si>
     <t xml:space="preserve">20% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIL</t>
   </si>
 </sst>
 </file>
@@ -337,11 +333,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="4" shrinkToFit="true"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="6" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="4" shrinkToFit="true"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="6" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -440,14 +436,14 @@
   <dimension ref="A1:Q1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A574" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H592" activeCellId="0" sqref="H592"/>
+      <selection pane="topLeft" activeCell="C591" activeCellId="0" sqref="C591"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.33"/>
@@ -26007,436 +26003,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:L13"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>